--- a/20170719-schools/builds/development/data/maindata.xlsx
+++ b/20170719-schools/builds/development/data/maindata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>dist#</t>
   </si>
@@ -65,13 +65,31 @@
   </si>
   <si>
     <t>Source: Minneaplis Public Schools</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>districts</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Minneaplis Public Schools</t>
+  </si>
+  <si>
+    <t>Capital projects data by Minneapolis school district neighborhood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +111,13 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -118,9 +143,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -395,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -562,22 +588,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="50.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/20170719-schools/builds/development/data/maindata.xlsx
+++ b/20170719-schools/builds/development/data/maindata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="16180" activeTab="1"/>
+    <workbookView xWindow="5100" yWindow="1260" windowWidth="19620" windowHeight="16180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="districts" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>dist#</t>
   </si>
@@ -83,6 +84,21 @@
   </si>
   <si>
     <t>Capital projects data by Minneapolis school district neighborhood</t>
+  </si>
+  <si>
+    <t>Percent of school buildings with air conditioning</t>
+  </si>
+  <si>
+    <t>Percent of buildings in use as of 2017</t>
+  </si>
+  <si>
+    <t>School board district name</t>
+  </si>
+  <si>
+    <t>Minneapolis Public Schools board district number</t>
+  </si>
+  <si>
+    <t>Average number of years since school building was first constructed</t>
   </si>
 </sst>
 </file>
@@ -138,8 +154,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -148,9 +168,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -432,7 +456,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -590,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -633,6 +657,75 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
